--- a/Project 2 Documentation/Burndown Chart/Burndown Chart chatapredu.xlsx
+++ b/Project 2 Documentation/Burndown Chart/Burndown Chart chatapredu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taiwo\Desktop\Revature Training\May 24th Batch\Project 2\docs\Project 2 Documentation\Burndown Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44938F6C-3BD6-4CF7-A5E7-F951BDA94A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F1C6D-FE28-44A8-BBFD-63F204527692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{278249F8-2613-4AF5-B591-A033C8328AD7}"/>
   </bookViews>
@@ -345,19 +345,19 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,6 +540,9 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
@@ -1000,19 +1003,19 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,6 +1198,9 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
@@ -2878,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F39199-5982-4E68-B6B2-9AB0222183E4}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3092,7 +3098,7 @@
         <v>44396</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>33</v>
@@ -3103,7 +3109,10 @@
         <v>44397</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3111,7 +3120,7 @@
         <v>44398</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3119,7 +3128,7 @@
         <v>44399</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3127,7 +3136,7 @@
         <v>44400</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Project 2 Documentation/Burndown Chart/Burndown Chart chatapredu.xlsx
+++ b/Project 2 Documentation/Burndown Chart/Burndown Chart chatapredu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taiwo\Desktop\Revature Training\May 24th Batch\Project 2\docs\Project 2 Documentation\Burndown Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F1C6D-FE28-44A8-BBFD-63F204527692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4732C7E1-F815-4632-9124-F5EBAEC03C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{278249F8-2613-4AF5-B591-A033C8328AD7}"/>
   </bookViews>
@@ -294,55 +294,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>30</c:v>
@@ -489,61 +489,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,55 +961,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>30</c:v>
@@ -1147,61 +1156,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F39199-5982-4E68-B6B2-9AB0222183E4}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2911,10 +2929,10 @@
         <v>44379</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2922,10 +2940,10 @@
         <v>44380</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2933,10 +2951,10 @@
         <v>44381</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2944,10 +2962,10 @@
         <v>44382</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2955,10 +2973,10 @@
         <v>44383</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2966,10 +2984,10 @@
         <v>44384</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2977,10 +2995,10 @@
         <v>44385</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2988,10 +3006,10 @@
         <v>44386</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2999,10 +3017,10 @@
         <v>44387</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3010,10 +3028,10 @@
         <v>44388</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3021,10 +3039,10 @@
         <v>44389</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3032,10 +3050,10 @@
         <v>44390</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3043,10 +3061,10 @@
         <v>44391</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3054,10 +3072,10 @@
         <v>44392</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3065,10 +3083,10 @@
         <v>44393</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3076,10 +3094,10 @@
         <v>44394</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3087,10 +3105,10 @@
         <v>44395</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3101,7 +3119,7 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3112,7 +3130,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3122,6 +3140,9 @@
       <c r="B21">
         <v>12</v>
       </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -3130,6 +3151,9 @@
       <c r="B22">
         <v>6</v>
       </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -3137,6 +3161,9 @@
       </c>
       <c r="B23">
         <v>0</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
